--- a/后台url映射.xlsx
+++ b/后台url映射.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\webshopRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B9CB70-CF47-4378-97BB-989AB31E2851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E09EAE-4624-4AA0-A31B-61583BB9306A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1620" windowWidth="17280" windowHeight="9696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1092" yWindow="1212" windowWidth="17280" windowHeight="9696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>提交方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,10 @@
   </si>
   <si>
     <t>退出登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/products/{productId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,18 +207,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -235,10 +233,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -522,7 +519,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -546,7 +543,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -557,7 +554,7 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -568,7 +565,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C4" t="s">
@@ -579,7 +576,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
@@ -599,10 +596,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -612,7 +609,7 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
@@ -623,7 +620,7 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
@@ -634,7 +631,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
@@ -645,7 +642,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
@@ -656,7 +653,7 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
@@ -667,7 +664,7 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
@@ -678,7 +675,7 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
@@ -689,7 +686,7 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
@@ -700,7 +697,7 @@
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
@@ -711,7 +708,7 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
@@ -722,7 +719,7 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C18" t="s">
@@ -733,7 +730,7 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
@@ -744,7 +741,7 @@
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
@@ -755,7 +752,7 @@
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
@@ -766,7 +763,7 @@
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C22" t="s">
@@ -777,7 +774,7 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C23" t="s">

--- a/后台url映射.xlsx
+++ b/后台url映射.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\webshopRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E09EAE-4624-4AA0-A31B-61583BB9306A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE7C95B-7FCB-4FDC-AE45-786A99B0ECF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1092" yWindow="1212" windowWidth="17280" windowHeight="9696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>提交方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,10 @@
   </si>
   <si>
     <t>/admin/products/{productId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/orders/{orderNum}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +523,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -709,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
